--- a/E-com Automation.xlsx
+++ b/E-com Automation.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cathy\Documents\GitHub\E-commerce\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C1E940-725D-4679-9E94-66502FD48B04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C1068D-D2F3-46CE-949B-02EF2780B8F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="16608" windowHeight="10536" xr2:uid="{62F0DE66-F2DB-4401-8183-35F5204A4F5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Day1</t>
   </si>
@@ -184,6 +184,38 @@
   </si>
   <si>
     <t>the cost of product in last page is equal to the price in details page</t>
+  </si>
+  <si>
+    <t>Day8</t>
+  </si>
+  <si>
+    <t>Verify Discount Coupon works correctly</t>
+  </si>
+  <si>
+    <t>1)Price is discounted by 5%</t>
+  </si>
+  <si>
+    <t>1. Go to http://live.demoguru99.com/
+2. Go to Mobile and Add Iphone to Cart
+3.Enter Coupon Code:GURU50
+4.Verify discount generated</t>
+  </si>
+  <si>
+    <t>DAY9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1)Console displays all info
+</t>
+  </si>
+  <si>
+    <t>Export all Orders in csv file and display these information in console</t>
+  </si>
+  <si>
+    <t>1. Go to http://live.demoguru99.com/index.php/backendlogin/customer/index/key/18c897d141fde0168ffd98d494989af3/
+2.Login to the credentials 
+3.Go to Sales-&gt;Orders
+4.Select"CSV" in Export to dropdown and click Export button
+5.Read download file and display all info in console windows</t>
   </si>
 </sst>
 </file>
@@ -549,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4247D5FE-0481-41FA-BA9C-600F79BE8225}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -674,6 +706,34 @@
         <v>27</v>
       </c>
     </row>
+    <row r="9" spans="1:4" ht="57.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
